--- a/lensformulae/cameras.xlsx
+++ b/lensformulae/cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\R\dev\photography\lensformulae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6B186-9B15-4B93-8449-44EA76861504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B34E84-87D2-4002-B4BB-71FCFAF2D71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
   </bookViews>
   <sheets>
     <sheet name="zofc" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -519,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B5D19F-DAF9-4411-BF9C-038209D2934A}">
   <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,10 +587,10 @@
         <v>5.291666666666667</v>
       </c>
       <c r="M4" s="1">
+        <f>N4/L4</f>
         <v>33</v>
       </c>
-      <c r="N4">
-        <f>L4*M4</f>
+      <c r="N4" s="3">
         <v>174.625</v>
       </c>
       <c r="P4">
@@ -743,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0AEE23-EF91-4917-845C-0F4C4C869384}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>

--- a/lensformulae/cameras.xlsx
+++ b/lensformulae/cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\R\dev\photography\lensformulae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B34E84-87D2-4002-B4BB-71FCFAF2D71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18F4EC-BAF1-4E80-9146-E79209975DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
   </bookViews>
   <sheets>
     <sheet name="zofc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>image size</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Canon EOS-1DX</t>
   </si>
   <si>
-    <t>Takahari</t>
-  </si>
-  <si>
     <t>ZofC um on sensor</t>
   </si>
   <si>
@@ -106,24 +103,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>Image_1</t>
-  </si>
-  <si>
-    <t>Image_2</t>
-  </si>
-  <si>
-    <t>Image_3</t>
-  </si>
-  <si>
-    <t>Image_4</t>
-  </si>
-  <si>
-    <t>Image_5</t>
-  </si>
-  <si>
-    <t>Image_6</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -146,6 +125,9 @@
   </si>
   <si>
     <t>yp</t>
+  </si>
+  <si>
+    <t>Takahari  5*4 (100 ASA)</t>
   </si>
 </sst>
 </file>
@@ -520,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B5D19F-DAF9-4411-BF9C-038209D2934A}">
   <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -567,19 +549,19 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f>F4*25.4</f>
+        <f t="shared" ref="H4:I7" si="0">F4*25.4</f>
         <v>127</v>
       </c>
       <c r="I4">
-        <f>G4*25.4</f>
+        <f t="shared" si="0"/>
         <v>177.79999999999998</v>
       </c>
       <c r="J4">
-        <f>H4/D4</f>
+        <f t="shared" ref="J4:K7" si="1">H4/D4</f>
         <v>5.291666666666667</v>
       </c>
       <c r="K4">
-        <f>I4/E4</f>
+        <f t="shared" si="1"/>
         <v>4.9388888888888882</v>
       </c>
       <c r="L4">
@@ -614,19 +596,19 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <f>F5*25.4</f>
+        <f t="shared" si="0"/>
         <v>203.2</v>
       </c>
       <c r="I5">
-        <f>G5*25.4</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="J5">
-        <f>H5/D5</f>
+        <f t="shared" si="1"/>
         <v>8.4666666666666668</v>
       </c>
       <c r="K5">
-        <f>I5/E5</f>
+        <f t="shared" si="1"/>
         <v>7.0555555555555554</v>
       </c>
       <c r="L5">
@@ -660,19 +642,19 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <f>F6*25.4</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="I6">
-        <f>G6*25.4</f>
+        <f t="shared" si="0"/>
         <v>177.79999999999998</v>
       </c>
       <c r="J6">
-        <f>H6/D6</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="K6">
-        <f>I6/E6</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="L6">
@@ -706,19 +688,19 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <f>F7*25.4</f>
+        <f t="shared" si="0"/>
         <v>203.2</v>
       </c>
       <c r="I7">
-        <f>G7*25.4</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="J7">
-        <f>H7/D7</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K7">
-        <f>I7/E7</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L7">
@@ -745,7 +727,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,31 +737,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
       <c r="B2">
         <v>6</v>
       </c>
@@ -787,11 +766,11 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(A2," ",B2," x ",C2," ",D2)</f>
-        <v>Image_1 6 x 4 Inches</v>
+        <f t="shared" ref="E2:E10" si="0">_xlfn.CONCAT(A2," ",B2," x ",C2," ",D2)</f>
+        <v xml:space="preserve"> 6 x 4 Inches</v>
       </c>
       <c r="F2">
         <f>B2*25.4</f>
@@ -803,9 +782,6 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
       <c r="B3">
         <v>7</v>
       </c>
@@ -813,25 +789,22 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.CONCAT(A3," ",B3," x ",C3," ",D3)</f>
-        <v>Image_2 7 x 5 Inches</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 7 x 5 Inches</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">B3*25.4</f>
+        <f t="shared" ref="F3:F7" si="1">B3*25.4</f>
         <v>177.79999999999998</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">C3*25.4</f>
+        <f t="shared" ref="G3:G7" si="2">C3*25.4</f>
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
       <c r="B4">
         <v>10</v>
       </c>
@@ -839,102 +812,93 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.CONCAT(A4," ",B4," x ",C4," ",D4)</f>
-        <v>Image_3 10 x 8 Inches</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 10 x 8 Inches</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>203.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
       <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 18 x 12 Inches</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>457.2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>304.79999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="str">
-        <f>_xlfn.CONCAT(A5," ",B5," x ",C5," ",D5)</f>
-        <v>Image_4 12 x 18 Inches</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>304.79999999999995</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 24 x 18 Inches</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>609.59999999999991</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>457.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="str">
-        <f>_xlfn.CONCAT(A6," ",B6," x ",C6," ",D6)</f>
-        <v>Image_5 18 x 24 Inches</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>457.2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 36 x 24 Inches</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>914.4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>609.59999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xlfn.CONCAT(A7," ",B7," x ",C7," ",D7)</f>
-        <v>Image_6 24 x 36 Inches</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>609.59999999999991</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>914.4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>210</v>
@@ -946,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.CONCAT(A8," ",B8," x ",C8," ",D8)</f>
+        <f t="shared" si="0"/>
         <v>A4 210 x 297 mm</v>
       </c>
       <c r="F8">
@@ -954,13 +918,13 @@
         <v>210</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="2">C8</f>
+        <f t="shared" ref="G8:G10" si="3">C8</f>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>297</v>
@@ -972,21 +936,21 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.CONCAT(A9," ",B9," x ",C9," ",D9)</f>
+        <f t="shared" si="0"/>
         <v>A3 297 x 420 mm</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F10" si="3">B9</f>
+        <f t="shared" ref="F9:F10" si="4">B9</f>
         <v>297</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>420</v>
@@ -998,15 +962,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <f>_xlfn.CONCAT(A10," ",B10," x ",C10," ",D10)</f>
+        <f t="shared" si="0"/>
         <v>A2 420 x 594 mm</v>
       </c>
       <c r="F10">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
         <v>594</v>
       </c>
     </row>
@@ -1019,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CFF128-252E-4A54-A9B9-13C60103D7E6}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -1103,15 +1067,15 @@
         <v>4025</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="0">B3/D3*1000</f>
+        <f t="shared" ref="F3:F6" si="0">B3/D3*1000</f>
         <v>5.945677376614773</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" si="1">C3/E3*1000</f>
+        <f t="shared" ref="G3:G6" si="1">C3/E3*1000</f>
         <v>5.9378881987577632</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H9" si="2">AVERAGE(F3:G3)</f>
+        <f t="shared" ref="H3:H6" si="2">AVERAGE(F3:G3)</f>
         <v>5.9417827876862681</v>
       </c>
     </row>
@@ -1177,7 +1141,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <f>4*25.4</f>
@@ -1188,24 +1152,24 @@
         <v>127</v>
       </c>
       <c r="D6" s="2">
-        <f>B6/(0.015)</f>
-        <v>6773.333333333333</v>
+        <f>B6/(0.01)</f>
+        <v>10160</v>
       </c>
       <c r="E6" s="2">
-        <f>C6/(0.015)</f>
-        <v>8466.6666666666679</v>
+        <f>C6/(0.01)</f>
+        <v>12700</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>14.999999999999998</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/lensformulae/cameras.xlsx
+++ b/lensformulae/cameras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\R\dev\photography\lensformulae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18F4EC-BAF1-4E80-9146-E79209975DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00CE4F-6C13-4B09-A613-51E4EF84A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>image size</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Takahari  5*4 (100 ASA)</t>
+  </si>
+  <si>
+    <t>Max_mag</t>
+  </si>
+  <si>
+    <t>Limit_of_vis</t>
+  </si>
+  <si>
+    <t>MPmm</t>
+  </si>
+  <si>
+    <t>MPinch</t>
   </si>
 </sst>
 </file>
@@ -180,11 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -503,7 +516,7 @@
   <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,19 +994,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CFF128-252E-4A54-A9B9-13C60103D7E6}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1018,8 +1034,20 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1047,8 +1075,24 @@
         <f>AVERAGE(F2:G2)</f>
         <v>6.4430675287356323</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <f>zofc!N4</f>
+        <v>174.625</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>27.102773519163762</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>_xlfn.CONCAT("- ",ROUND(B2*J2,0),"x",ROUND(C2*J2,0)," mm")</f>
+        <v>- 973x648 mm</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f>_xlfn.CONCAT("- ",ROUND(B2*J2/25.4,0),"x",ROUND(C2*J2/25.4,0)," inch")</f>
+        <v>- 38x26 inch</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1078,8 +1122,24 @@
         <f t="shared" ref="H3:H6" si="2">AVERAGE(F3:G3)</f>
         <v>5.9417827876862681</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <f>I2</f>
+        <v>174.625</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="3">I3/H3</f>
+        <v>29.389327452678394</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K6" si="4">_xlfn.CONCAT("- ",ROUND(B3*J3,0),"x",ROUND(C3*J3,0)," mm")</f>
+        <v>- 1055x702 mm</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" ref="L3:L6" si="5">_xlfn.CONCAT("- ",ROUND(B3*J3/25.4,0),"x",ROUND(C3*J3/25.4,0)," inch")</f>
+        <v>- 42x28 inch</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1167,24 @@
         <f t="shared" si="2"/>
         <v>3.9083333333333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I6" si="6">I3</f>
+        <v>174.625</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>44.680170575692962</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>- 697x1050 mm</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>- 27x41 inch</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1138,8 +1214,24 @@
         <f t="shared" si="2"/>
         <v>6.5561038011695905</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <f t="shared" si="6"/>
+        <v>174.625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>26.635484320557492</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>- 956x637 mm</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>- 38x25 inch</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1170,6 +1262,22 @@
       <c r="H6" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="6"/>
+        <v>174.625</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>17.462499999999999</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>- 1774x2218 mm</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>- 70x87 inch</v>
       </c>
     </row>
   </sheetData>

--- a/lensformulae/cameras.xlsx
+++ b/lensformulae/cameras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\R\dev\photography\lensformulae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00CE4F-6C13-4B09-A613-51E4EF84A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7737045C-67E9-43A4-8B2C-019C037719E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{57797F44-4CEF-4E41-BABA-46EBDF0AF24A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>image size</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>MPinch</t>
+  </si>
+  <si>
+    <t>Sony a7ii</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CFF128-252E-4A54-A9B9-13C60103D7E6}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1114,7 @@
         <v>4025</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="0">B3/D3*1000</f>
+        <f t="shared" ref="F3:F7" si="0">B3/D3*1000</f>
         <v>5.945677376614773</v>
       </c>
       <c r="G3" s="1">
@@ -1278,6 +1281,51 @@
       <c r="L6" s="4" t="str">
         <f t="shared" si="5"/>
         <v>- 70x87 inch</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C7">
+        <v>23.9</v>
+      </c>
+      <c r="D7">
+        <v>6000</v>
+      </c>
+      <c r="E7">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9666666666666659</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7" si="7">C7/E7*1000</f>
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="8">AVERAGE(F7:G7)</f>
+        <v>5.9708333333333332</v>
+      </c>
+      <c r="I7" s="3">
+        <f>I6</f>
+        <v>174.625</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="9">I7/H7</f>
+        <v>29.246336357292392</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" ref="K7" si="10">_xlfn.CONCAT("- ",ROUND(B7*J7,0),"x",ROUND(C7*J7,0)," mm")</f>
+        <v>- 1047x699 mm</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" ref="L7" si="11">_xlfn.CONCAT("- ",ROUND(B7*J7/25.4,0),"x",ROUND(C7*J7/25.4,0)," inch")</f>
+        <v>- 41x28 inch</v>
       </c>
     </row>
   </sheetData>
